--- a/jadwal.xlsx
+++ b/jadwal.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20402"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F57A9983-79B7-4924-B391-A8D73116D2F3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D006EBE-FE37-420D-AEC4-828A88774FFF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="87">
   <si>
     <t>Tanggal</t>
   </si>
@@ -259,9 +259,6 @@
     <t>Ustadz Hanif</t>
   </si>
   <si>
-    <t>Ustadz Aswan</t>
-  </si>
-  <si>
     <t>Konfirmasi</t>
   </si>
   <si>
@@ -269,14 +266,37 @@
   </si>
   <si>
     <t>Ustadz Ibrahim</t>
+  </si>
+  <si>
+    <t>Ustadz Yuda</t>
+  </si>
+  <si>
+    <t>Ustadz Elvis Indra</t>
+  </si>
+  <si>
+    <t>Ustadz Awan Karliawan</t>
+  </si>
+  <si>
+    <t>Jadwal Imam Tarawih</t>
+  </si>
+  <si>
+    <t>Musholla Baitul Hilmi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -292,9 +312,98 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="8">
     <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
@@ -304,12 +413,37 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -590,477 +724,567 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="14"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="15"/>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B4" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" t="s">
+      <c r="C4" s="8"/>
+      <c r="D4" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E4" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="F1" t="s">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="F5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="F7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" s="13"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="F11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" s="13"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="F13" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="E15" s="13"/>
+      <c r="F15" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="11" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="E16" s="13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="E17" s="13"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B19" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="F19" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="B20" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="F21" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="F23" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="E25" s="13"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="E26" s="13"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="E27" s="13"/>
+      <c r="F27" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="E29" s="13"/>
+      <c r="F29" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="E3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" t="s">
-        <v>77</v>
-      </c>
-      <c r="E4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="E30" s="13"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="E31" s="13"/>
+      <c r="F31" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" t="s">
-        <v>79</v>
-      </c>
-      <c r="F8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="B32" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="E32" s="13"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" t="s">
-        <v>79</v>
-      </c>
-      <c r="F10" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" t="s">
-        <v>48</v>
-      </c>
-      <c r="C11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" t="s">
-        <v>77</v>
-      </c>
-      <c r="E11" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12" t="s">
-        <v>49</v>
-      </c>
-      <c r="C12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" t="s">
-        <v>71</v>
-      </c>
-      <c r="F12" t="s">
+      <c r="B33" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="E33" s="13"/>
+      <c r="F33" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13" t="s">
-        <v>50</v>
-      </c>
-      <c r="C13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>37</v>
-      </c>
-      <c r="B14" t="s">
-        <v>51</v>
-      </c>
-      <c r="C14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>38</v>
-      </c>
-      <c r="B15" t="s">
-        <v>52</v>
-      </c>
-      <c r="C15" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" t="s">
-        <v>53</v>
-      </c>
-      <c r="C16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" t="s">
-        <v>73</v>
-      </c>
-      <c r="F16" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" t="s">
-        <v>54</v>
-      </c>
-      <c r="C17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" t="s">
-        <v>55</v>
-      </c>
-      <c r="C18" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" t="s">
-        <v>77</v>
-      </c>
-      <c r="E18" t="s">
-        <v>74</v>
-      </c>
-      <c r="F18" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" t="s">
-        <v>56</v>
-      </c>
-      <c r="C19" t="s">
-        <v>18</v>
-      </c>
-      <c r="D19" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>36</v>
-      </c>
-      <c r="B20" t="s">
-        <v>57</v>
-      </c>
-      <c r="C20" t="s">
-        <v>19</v>
-      </c>
-      <c r="F20" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>37</v>
-      </c>
-      <c r="B21" t="s">
-        <v>58</v>
-      </c>
-      <c r="C21" t="s">
-        <v>20</v>
-      </c>
-      <c r="D21" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>38</v>
-      </c>
-      <c r="B22" t="s">
-        <v>59</v>
-      </c>
-      <c r="C22" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>32</v>
-      </c>
-      <c r="B23" t="s">
-        <v>60</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>33</v>
-      </c>
-      <c r="B24" t="s">
-        <v>61</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D24" t="s">
-        <v>78</v>
-      </c>
-      <c r="F24" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>34</v>
-      </c>
-      <c r="B25" t="s">
-        <v>62</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D25" t="s">
-        <v>77</v>
-      </c>
-      <c r="E25" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>35</v>
-      </c>
-      <c r="B26" t="s">
-        <v>63</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D26" t="s">
-        <v>78</v>
-      </c>
-      <c r="F26" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>36</v>
-      </c>
-      <c r="B27" t="s">
-        <v>64</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>37</v>
-      </c>
-      <c r="B28" t="s">
-        <v>65</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D28" t="s">
-        <v>78</v>
-      </c>
-      <c r="F28" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>38</v>
-      </c>
-      <c r="B29" t="s">
-        <v>66</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>32</v>
-      </c>
-      <c r="B30" t="s">
-        <v>67</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D30" t="s">
-        <v>78</v>
-      </c>
-      <c r="F30" t="s">
-        <v>72</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B1:C1"/>
+  <mergeCells count="3">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/jadwal.xlsx
+++ b/jadwal.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20402"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D006EBE-FE37-420D-AEC4-828A88774FFF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91B8926E-770C-43BA-87D2-9B187360CF7F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -415,21 +415,12 @@
   </cellStyleXfs>
   <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -444,6 +435,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -726,8 +726,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -739,56 +739,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="14"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="11"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="12"/>
     </row>
     <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="9" t="s">
+      <c r="C4" s="13"/>
+      <c r="D4" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="1" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="10" t="s">
         <v>74</v>
       </c>
       <c r="F5" t="s">
@@ -796,36 +796,36 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="10" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="10" t="s">
         <v>74</v>
       </c>
       <c r="F7" t="s">
@@ -833,68 +833,68 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="10" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="10" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="E10" s="13"/>
+      <c r="E10" s="10"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="E11" s="10" t="s">
         <v>74</v>
       </c>
       <c r="F11" t="s">
@@ -902,34 +902,34 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="E12" s="13"/>
+      <c r="E12" s="10"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="E13" s="13" t="s">
+      <c r="E13" s="10" t="s">
         <v>74</v>
       </c>
       <c r="F13" t="s">
@@ -937,103 +937,105 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="E14" s="13" t="s">
+      <c r="E14" s="10" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="E15" s="13"/>
+      <c r="D15" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="E15" s="10"/>
       <c r="F15" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="E16" s="13" t="s">
+      <c r="E16" s="10" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="E17" s="13"/>
+      <c r="E17" s="10" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="E18" s="13" t="s">
+      <c r="E18" s="10" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="D19" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="E19" s="13" t="s">
+      <c r="E19" s="10" t="s">
         <v>74</v>
       </c>
       <c r="F19" t="s">
@@ -1041,36 +1043,36 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="D20" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="E20" s="13" t="s">
+      <c r="E20" s="10" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="11" t="s">
+      <c r="D21" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="E21" s="13" t="s">
+      <c r="E21" s="10" t="s">
         <v>74</v>
       </c>
       <c r="F21" t="s">
@@ -1078,36 +1080,36 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="11" t="s">
+      <c r="D22" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="E22" s="13" t="s">
+      <c r="E22" s="10" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="11" t="s">
+      <c r="D23" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="E23" s="13" t="s">
+      <c r="E23" s="10" t="s">
         <v>74</v>
       </c>
       <c r="F23" t="s">
@@ -1115,167 +1117,164 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D24" s="11" t="s">
+      <c r="D24" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="E24" s="13" t="s">
+      <c r="E24" s="10" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D25" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="E25" s="13"/>
+      <c r="E25" s="10"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D26" s="11" t="s">
+      <c r="D26" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="E26" s="13"/>
+      <c r="E26" s="10"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D27" s="11" t="s">
+      <c r="D27" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="E27" s="13"/>
+      <c r="E27" s="10"/>
       <c r="F27" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D28" s="11" t="s">
+      <c r="D28" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="E28" s="13" t="s">
+      <c r="E28" s="10" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D29" s="11" t="s">
+      <c r="D29" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="E29" s="13"/>
+      <c r="E29" s="10"/>
       <c r="F29" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
+      <c r="A30" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D30" s="11" t="s">
+      <c r="D30" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="E30" s="13"/>
+      <c r="E30" s="10"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
+      <c r="A31" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C31" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D31" s="11" t="s">
+      <c r="D31" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="E31" s="13"/>
+      <c r="E31" s="10"/>
       <c r="F31" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
+      <c r="A32" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C32" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D32" s="11" t="s">
+      <c r="D32" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="E32" s="13"/>
+      <c r="E32" s="10"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
+      <c r="A33" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="C33" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D33" s="11" t="s">
+      <c r="D33" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="E33" s="13"/>
+      <c r="E33" s="10"/>
       <c r="F33" t="s">
         <v>72</v>
       </c>

--- a/jadwal.xlsx
+++ b/jadwal.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20402"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91B8926E-770C-43BA-87D2-9B187360CF7F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6855D3C-61B6-4EC7-9B94-98A2EA76F0EE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -413,7 +413,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -444,6 +444,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -726,8 +727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1143,6 +1144,7 @@
       <c r="C25" s="2" t="s">
         <v>21</v>
       </c>
+      <c r="D25" s="16"/>
       <c r="E25" s="10"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">

--- a/jadwal.xlsx
+++ b/jadwal.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20402"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6855D3C-61B6-4EC7-9B94-98A2EA76F0EE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{948D358F-8581-485B-A9EB-7F9678F99EEA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="88">
   <si>
     <t>Tanggal</t>
   </si>
@@ -281,6 +281,9 @@
   </si>
   <si>
     <t>Musholla Baitul Hilmi</t>
+  </si>
+  <si>
+    <t>Ustadz Latip</t>
   </si>
 </sst>
 </file>
@@ -435,6 +438,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -444,7 +448,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -727,8 +730,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -740,21 +743,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
       <c r="E1" s="11"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
       <c r="E2" s="12"/>
     </row>
     <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -762,10 +765,10 @@
       <c r="A4" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="13"/>
+      <c r="C4" s="14"/>
       <c r="D4" s="6" t="s">
         <v>30</v>
       </c>
@@ -1144,8 +1147,12 @@
       <c r="C25" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D25" s="16"/>
-      <c r="E25" s="10"/>
+      <c r="D25" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
@@ -1228,7 +1235,9 @@
       <c r="D30" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="E30" s="10"/>
+      <c r="E30" s="10" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
@@ -1261,7 +1270,9 @@
       <c r="D32" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="E32" s="10"/>
+      <c r="E32" s="10" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">

--- a/jadwal.xlsx
+++ b/jadwal.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20402"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{948D358F-8581-485B-A9EB-7F9678F99EEA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0647E4A2-F353-4C0D-9367-8D7AB589A5D5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="87">
   <si>
     <t>Tanggal</t>
   </si>
@@ -269,9 +269,6 @@
   </si>
   <si>
     <t>Ustadz Yuda</t>
-  </si>
-  <si>
-    <t>Ustadz Elvis Indra</t>
   </si>
   <si>
     <t>Ustadz Awan Karliawan</t>
@@ -730,8 +727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -744,7 +741,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
@@ -753,7 +750,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
@@ -967,9 +964,7 @@
       <c r="C15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="8" t="s">
-        <v>83</v>
-      </c>
+      <c r="D15" s="8"/>
       <c r="E15" s="10"/>
       <c r="F15" t="s">
         <v>72</v>
@@ -1148,7 +1143,7 @@
         <v>21</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E25" s="10" t="s">
         <v>74</v>
@@ -1165,9 +1160,11 @@
         <v>22</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="E26" s="10"/>
+        <v>83</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">

--- a/jadwal.xlsx
+++ b/jadwal.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20402"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0647E4A2-F353-4C0D-9367-8D7AB589A5D5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19900DDA-744A-4816-8EFC-6132C87C9ED9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="87">
   <si>
     <t>Tanggal</t>
   </si>
@@ -727,8 +727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1179,7 +1179,9 @@
       <c r="D27" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="E27" s="10"/>
+      <c r="E27" s="10" t="s">
+        <v>74</v>
+      </c>
       <c r="F27" t="s">
         <v>70</v>
       </c>
@@ -1214,7 +1216,9 @@
       <c r="D29" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="E29" s="10"/>
+      <c r="E29" s="10" t="s">
+        <v>74</v>
+      </c>
       <c r="F29" t="s">
         <v>73</v>
       </c>
@@ -1249,7 +1253,9 @@
       <c r="D31" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="E31" s="10"/>
+      <c r="E31" s="10" t="s">
+        <v>74</v>
+      </c>
       <c r="F31" t="s">
         <v>69</v>
       </c>
@@ -1284,7 +1290,9 @@
       <c r="D33" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="E33" s="10"/>
+      <c r="E33" s="10" t="s">
+        <v>74</v>
+      </c>
       <c r="F33" t="s">
         <v>72</v>
       </c>

--- a/jadwal.xlsx
+++ b/jadwal.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20402"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19900DDA-744A-4816-8EFC-6132C87C9ED9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15399DFB-B420-45AE-A33C-04072A80221A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="87">
   <si>
     <t>Tanggal</t>
   </si>
@@ -727,8 +727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -880,7 +880,9 @@
       <c r="D10" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="E10" s="10"/>
+      <c r="E10" s="10" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
@@ -913,7 +915,7 @@
         <v>8</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E12" s="10"/>
     </row>
@@ -964,7 +966,9 @@
       <c r="C15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="8"/>
+      <c r="D15" s="8" t="s">
+        <v>70</v>
+      </c>
       <c r="E15" s="10"/>
       <c r="F15" t="s">
         <v>72</v>

--- a/jadwal.xlsx
+++ b/jadwal.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20402"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15399DFB-B420-45AE-A33C-04072A80221A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{815CEB5C-5E07-4958-A67D-3DF6FA5B399D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="87">
   <si>
     <t>Tanggal</t>
   </si>
@@ -728,7 +728,7 @@
   <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -914,9 +914,7 @@
       <c r="C12" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="8" t="s">
-        <v>70</v>
-      </c>
+      <c r="D12" s="8"/>
       <c r="E12" s="10"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">

--- a/jadwal.xlsx
+++ b/jadwal.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20402"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{815CEB5C-5E07-4958-A67D-3DF6FA5B399D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{261D540C-66F1-4BDC-9B89-C531295F54F1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="87">
   <si>
     <t>Tanggal</t>
   </si>
@@ -728,7 +728,7 @@
   <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -967,7 +967,9 @@
       <c r="D15" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="E15" s="10"/>
+      <c r="E15" s="10" t="s">
+        <v>74</v>
+      </c>
       <c r="F15" t="s">
         <v>72</v>
       </c>

--- a/jadwal.xlsx
+++ b/jadwal.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{261D540C-66F1-4BDC-9B89-C531295F54F1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A3422D9-D05A-4F63-899D-C8115A2B9E0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="86">
   <si>
     <t>Tanggal</t>
   </si>
@@ -269,9 +269,6 @@
   </si>
   <si>
     <t>Ustadz Yuda</t>
-  </si>
-  <si>
-    <t>Ustadz Awan Karliawan</t>
   </si>
   <si>
     <t>Jadwal Imam Tarawih</t>
@@ -728,7 +725,7 @@
   <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -741,7 +738,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
@@ -750,7 +747,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
@@ -914,8 +911,12 @@
       <c r="C12" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="10"/>
+      <c r="D12" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
@@ -1056,7 +1057,7 @@
         <v>16</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E20" s="10" t="s">
         <v>74</v>
@@ -1093,7 +1094,7 @@
         <v>18</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E22" s="10" t="s">
         <v>74</v>
@@ -1147,7 +1148,7 @@
         <v>21</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E25" s="10" t="s">
         <v>74</v>
@@ -1164,7 +1165,7 @@
         <v>22</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E26" s="10" t="s">
         <v>74</v>
